--- a/cronograma2024.xlsx
+++ b/cronograma2024.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27624"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAB4\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prof\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76D034B5-C13D-4BBA-8342-DBACCE912104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -152,9 +151,6 @@
     <t>Pesquisas de Viabilidade/Caderno de Sensibilidade/ Validação da Problema</t>
   </si>
   <si>
-    <t>Desenvolvimento do Site/Entregas das versões betas em vermelho</t>
-  </si>
-  <si>
     <t>Diário de Bordo/Portfólio</t>
   </si>
   <si>
@@ -198,13 +194,16 @@
   </si>
   <si>
     <t xml:space="preserve">Apresentação do TCC </t>
+  </si>
+  <si>
+    <t>Desenvolvimento do Site/Entregas das versões betas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -790,23 +789,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="AE19" sqref="AE19:AG19"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="57" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="57" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.28515625" style="13" customWidth="1"/>
     <col min="6" max="7" width="6.7109375" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="57" customHeight="1">
+    <row r="1" spans="1:33" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -847,7 +846,7 @@
       <c r="AF1" s="27"/>
       <c r="AG1" s="27"/>
     </row>
-    <row r="2" spans="1:33" ht="93.75" customHeight="1">
+    <row r="2" spans="1:33" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -948,7 +947,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="57" customHeight="1">
+    <row r="3" spans="1:33" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>36</v>
       </c>
@@ -985,7 +984,7 @@
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
     </row>
-    <row r="4" spans="1:33" ht="57" customHeight="1">
+    <row r="4" spans="1:33" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>37</v>
       </c>
@@ -1022,9 +1021,9 @@
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
     </row>
-    <row r="5" spans="1:33" ht="57" customHeight="1">
+    <row r="5" spans="1:33" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1044,8 +1043,8 @@
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="14"/>
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
       <c r="X5" s="6"/>
@@ -1059,9 +1058,9 @@
       <c r="AF5" s="6"/>
       <c r="AG5" s="6"/>
     </row>
-    <row r="6" spans="1:33" ht="57" customHeight="1">
+    <row r="6" spans="1:33" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -1096,9 +1095,9 @@
       <c r="AF6" s="14"/>
       <c r="AG6" s="14"/>
     </row>
-    <row r="7" spans="1:33" ht="57" customHeight="1">
+    <row r="7" spans="1:33" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1133,9 +1132,9 @@
       <c r="AF7" s="6"/>
       <c r="AG7" s="6"/>
     </row>
-    <row r="8" spans="1:33" ht="57" customHeight="1">
+    <row r="8" spans="1:33" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="14"/>
@@ -1170,9 +1169,9 @@
       <c r="AF8" s="6"/>
       <c r="AG8" s="6"/>
     </row>
-    <row r="9" spans="1:33" ht="57" customHeight="1">
+    <row r="9" spans="1:33" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1207,9 +1206,9 @@
       <c r="AF9" s="6"/>
       <c r="AG9" s="6"/>
     </row>
-    <row r="10" spans="1:33" ht="57" customHeight="1">
+    <row r="10" spans="1:33" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1244,9 +1243,9 @@
       <c r="AF10" s="4"/>
       <c r="AG10" s="4"/>
     </row>
-    <row r="11" spans="1:33" ht="57" customHeight="1">
+    <row r="11" spans="1:33" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1268,7 +1267,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
+      <c r="V11" s="14"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
@@ -1281,9 +1280,9 @@
       <c r="AF11" s="3"/>
       <c r="AG11" s="3"/>
     </row>
-    <row r="12" spans="1:33" ht="57" customHeight="1">
+    <row r="12" spans="1:33" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1295,7 +1294,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="14"/>
+      <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
@@ -1305,7 +1304,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
+      <c r="V12" s="14"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
@@ -1318,9 +1317,9 @@
       <c r="AF12" s="3"/>
       <c r="AG12" s="3"/>
     </row>
-    <row r="13" spans="1:33" ht="57" customHeight="1">
+    <row r="13" spans="1:33" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1332,7 +1331,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="14"/>
+      <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
@@ -1342,7 +1341,7 @@
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
+      <c r="V13" s="14"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
@@ -1355,9 +1354,9 @@
       <c r="AF13" s="3"/>
       <c r="AG13" s="3"/>
     </row>
-    <row r="14" spans="1:33" ht="57" customHeight="1">
+    <row r="14" spans="1:33" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -1369,7 +1368,6 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="14"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -1379,7 +1377,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
+      <c r="V14" s="14"/>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
@@ -1392,9 +1390,9 @@
       <c r="AF14" s="3"/>
       <c r="AG14" s="3"/>
     </row>
-    <row r="15" spans="1:33" ht="57" customHeight="1">
+    <row r="15" spans="1:33" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1429,9 +1427,9 @@
       <c r="AF15" s="3"/>
       <c r="AG15" s="3"/>
     </row>
-    <row r="16" spans="1:33" ht="57" customHeight="1">
+    <row r="16" spans="1:33" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1447,7 +1445,7 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="14"/>
+      <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="14"/>
@@ -1466,9 +1464,9 @@
       <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
     </row>
-    <row r="17" spans="1:33" ht="57" customHeight="1">
+    <row r="17" spans="1:33" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1503,9 +1501,9 @@
       <c r="AF17" s="3"/>
       <c r="AG17" s="3"/>
     </row>
-    <row r="18" spans="1:33" ht="57" customHeight="1">
+    <row r="18" spans="1:33" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1540,9 +1538,9 @@
       <c r="AF18" s="3"/>
       <c r="AG18" s="3"/>
     </row>
-    <row r="19" spans="1:33" ht="57" customHeight="1">
+    <row r="19" spans="1:33" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1577,9 +1575,9 @@
       <c r="AF19" s="3"/>
       <c r="AG19" s="3"/>
     </row>
-    <row r="20" spans="1:33" ht="57" customHeight="1">
+    <row r="20" spans="1:33" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>

--- a/cronograma2024.xlsx
+++ b/cronograma2024.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prof\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAB4\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t xml:space="preserve">LEGENDA             ======================================&gt; </t>
   </si>
@@ -197,6 +197,12 @@
   </si>
   <si>
     <t>Desenvolvimento do Site/Entregas das versões betas</t>
+  </si>
+  <si>
+    <t>Modelagem banco</t>
+  </si>
+  <si>
+    <t>Integração Banco com sistema</t>
   </si>
 </sst>
 </file>
@@ -429,7 +435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180" wrapText="1" readingOrder="1"/>
@@ -509,6 +515,9 @@
     </xf>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -796,13 +805,17 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V19" sqref="V19"/>
+      <selection pane="bottomRight" activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="57" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.28515625" style="13" customWidth="1"/>
     <col min="6" max="7" width="6.7109375" style="20"/>
+    <col min="23" max="23" width="7.7109375" customWidth="1"/>
+    <col min="24" max="24" width="8.5703125" customWidth="1"/>
+    <col min="25" max="25" width="9.140625" customWidth="1"/>
+    <col min="26" max="26" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -1048,8 +1061,8 @@
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
       <c r="X5" s="6"/>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="14"/>
       <c r="AA5" s="6"/>
       <c r="AB5" s="6"/>
       <c r="AC5" s="14"/>
@@ -1390,7 +1403,7 @@
       <c r="AF14" s="3"/>
       <c r="AG14" s="3"/>
     </row>
-    <row r="15" spans="1:33" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>47</v>
       </c>
@@ -1415,9 +1428,15 @@
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
+      <c r="W15" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="X15" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y15" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="Z15" s="14"/>
       <c r="AA15" s="14"/>
       <c r="AB15" s="14"/>

--- a/cronograma2024.xlsx
+++ b/cronograma2024.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAB4\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prof\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t xml:space="preserve">LEGENDA             ======================================&gt; </t>
   </si>
@@ -199,10 +199,28 @@
     <t>Desenvolvimento do Site/Entregas das versões betas</t>
   </si>
   <si>
-    <t>Modelagem banco</t>
-  </si>
-  <si>
     <t>Integração Banco com sistema</t>
+  </si>
+  <si>
+    <t>Modelagem banco e casos de uso</t>
+  </si>
+  <si>
+    <t>Termos de uso e Privacidade</t>
+  </si>
+  <si>
+    <t>Apresentação protótipo</t>
+  </si>
+  <si>
+    <t>Inserir principais telas do protótipo na documentação, designs e principais funcionalidades.</t>
+  </si>
+  <si>
+    <t>Explicação financeiro</t>
+  </si>
+  <si>
+    <t>Entrega financeiro na documentação</t>
+  </si>
+  <si>
+    <t>Pesquisar vários na mesma linha de pesquisa de vocês, LGPD e lei de proteção aos dados</t>
   </si>
 </sst>
 </file>
@@ -504,6 +522,9 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -515,9 +536,6 @@
     </xf>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -799,23 +817,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG20"/>
+  <dimension ref="A1:AG21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="G15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC8" sqref="AC8"/>
+      <selection pane="bottomRight" activeCell="AA16" sqref="AA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="57" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.28515625" style="13" customWidth="1"/>
     <col min="6" max="7" width="6.7109375" style="20"/>
-    <col min="23" max="23" width="7.7109375" customWidth="1"/>
-    <col min="24" max="24" width="8.5703125" customWidth="1"/>
+    <col min="23" max="23" width="11.140625" customWidth="1"/>
+    <col min="24" max="24" width="10.42578125" customWidth="1"/>
     <col min="25" max="25" width="9.140625" customWidth="1"/>
-    <col min="26" max="26" width="6.5703125" customWidth="1"/>
+    <col min="26" max="26" width="12.42578125" customWidth="1"/>
+    <col min="27" max="27" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -823,41 +842,41 @@
         <v>0</v>
       </c>
       <c r="B1" s="9"/>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="21"/>
-      <c r="S1" s="26" t="s">
+      <c r="S1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
     </row>
     <row r="2" spans="1:33" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -1428,17 +1447,21 @@
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
-      <c r="W15" s="28" t="s">
+      <c r="W15" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="X15" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="X15" s="14" t="s">
-        <v>55</v>
-      </c>
       <c r="Y15" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="14"/>
+        <v>54</v>
+      </c>
+      <c r="Z15" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA15" s="23" t="s">
+        <v>58</v>
+      </c>
       <c r="AB15" s="14"/>
       <c r="AC15" s="3"/>
       <c r="AD15" s="3"/>
@@ -1473,9 +1496,13 @@
       <c r="V16" s="14"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
+      <c r="Y16" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="Z16" s="14"/>
-      <c r="AA16" s="3"/>
+      <c r="AA16" s="23" t="s">
+        <v>60</v>
+      </c>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
@@ -1483,9 +1510,9 @@
       <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
     </row>
-    <row r="17" spans="1:33" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1504,15 +1531,17 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
+      <c r="S17" s="14"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
+      <c r="V17" s="14"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
-      <c r="Z17" s="14"/>
-      <c r="AA17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="23" t="s">
+        <v>61</v>
+      </c>
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
@@ -1520,9 +1549,9 @@
       <c r="AF17" s="3"/>
       <c r="AG17" s="3"/>
     </row>
-    <row r="18" spans="1:33" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1548,9 +1577,9 @@
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
+      <c r="Z18" s="14"/>
       <c r="AA18" s="3"/>
-      <c r="AB18" s="14"/>
+      <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
@@ -1559,7 +1588,7 @@
     </row>
     <row r="19" spans="1:33" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1587,20 +1616,20 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="22"/>
-      <c r="AD19" s="22"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
       <c r="AG19" s="3"/>
     </row>
     <row r="20" spans="1:33" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="A20" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
@@ -1625,11 +1654,48 @@
       <c r="Z20" s="3"/>
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
-      <c r="AC20" s="3"/>
-      <c r="AD20" s="3"/>
-      <c r="AE20" s="23"/>
-      <c r="AF20" s="23"/>
-      <c r="AG20" s="23"/>
+      <c r="AC20" s="22"/>
+      <c r="AD20" s="22"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3"/>
+    </row>
+    <row r="21" spans="1:33" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="23"/>
+      <c r="AF21" s="23"/>
+      <c r="AG21" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
